--- a/A-DOCUMENTACION/010. CASOS DE PRUEBA.xlsx
+++ b/A-DOCUMENTACION/010. CASOS DE PRUEBA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OP Gerencia\Documents\CLAUDIA\PROYECTOS\DOCUMENTACION PROYECTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\GitHub\Proyectos\A-DOCUMENTACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9180" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9180" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -378,9 +378,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,33 +411,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -432,14 +441,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,49 +932,49 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -985,125 +988,113 @@
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="G17" s="19" t="s">
+      <c r="D17" s="26"/>
+      <c r="G17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C6:F6"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="C16:D16"/>
@@ -1115,6 +1106,18 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1126,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
@@ -1149,39 +1152,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D2" s="22"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="21"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D3" s="23"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
@@ -1194,27 +1197,27 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="17" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1241,25 +1244,25 @@
       <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="35"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="13" t="s">
         <v>20</v>
       </c>
@@ -1290,15 +1293,15 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -1311,15 +1314,15 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -1332,15 +1335,15 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
@@ -1353,15 +1356,15 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -1374,15 +1377,15 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
@@ -1395,15 +1398,15 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -1416,15 +1419,15 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
@@ -1437,15 +1440,15 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
@@ -1458,15 +1461,15 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
@@ -1479,15 +1482,15 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
@@ -1500,15 +1503,15 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
@@ -1520,74 +1523,78 @@
       <c r="T20" s="14"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="2:20" ht="30" x14ac:dyDescent="0.25">
       <c r="D24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37" t="s">
+      <c r="F24" s="29"/>
+      <c r="G24" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D25" s="14"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D26" s="14"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:G4"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -1604,33 +1611,29 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:G4"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/A-DOCUMENTACION/010. CASOS DE PRUEBA.xlsx
+++ b/A-DOCUMENTACION/010. CASOS DE PRUEBA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\GitHub\Proyectos\A-DOCUMENTACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\CLAUDIA\PROYECTOS\DOCUMENTACION\A-PROYECTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9180" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9180" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <r>
       <t xml:space="preserve">Revisión. </t>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">Código. </t>
+  </si>
+  <si>
+    <t>Se prohíbe la reproducción parcial o total de este documento, por cualquier medio, sin autorización de la Dirección de Comercial de Carnes Frías del Norte. Este documento contiene información confidencial y de uso exclusivo de personal de CCFN.</t>
   </si>
 </sst>
 </file>
@@ -342,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -441,8 +444,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,11 +1013,11 @@
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
@@ -1019,11 +1025,11 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
@@ -1031,11 +1037,11 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
@@ -1043,11 +1049,11 @@
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
@@ -1127,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T26"/>
+  <dimension ref="B2:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,8 +1572,50 @@
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
     </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="67">
+    <mergeCell ref="B29:T29"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="J2:J4"/>

--- a/A-DOCUMENTACION/010. CASOS DE PRUEBA.xlsx
+++ b/A-DOCUMENTACION/010. CASOS DE PRUEBA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\CLAUDIA\PROYECTOS\DOCUMENTACION\A-PROYECTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\GitHub\Proyectos\A-DOCUMENTACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -171,10 +171,10 @@
     <t>NUMERO DE REVISIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">Código. </t>
-  </si>
-  <si>
     <t>Se prohíbe la reproducción parcial o total de este documento, por cualquier medio, sin autorización de la Dirección de Comercial de Carnes Frías del Norte. Este documento contiene información confidencial y de uso exclusivo de personal de CCFN.</t>
+  </si>
+  <si>
+    <t>Código.</t>
   </si>
 </sst>
 </file>
@@ -345,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -381,38 +381,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,35 +441,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,13 +567,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -602,13 +605,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>669925</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -938,36 +941,36 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="19"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
@@ -994,18 +997,18 @@
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
@@ -1072,35 +1075,47 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="25"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="G17" s="26" t="s">
+      <c r="D17" s="20"/>
+      <c r="G17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="C16:D16"/>
@@ -1112,18 +1127,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1133,66 +1136,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T31"/>
+  <dimension ref="A2:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="2"/>
-    <col min="12" max="16" width="30.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.7109375" style="2" customWidth="1"/>
-    <col min="18" max="20" width="30.7109375" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="2"/>
+    <col min="11" max="15" width="30.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" style="2" customWidth="1"/>
+    <col min="17" max="19" width="30.7109375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D2" s="20"/>
-      <c r="E2" s="23" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="23"/>
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D3" s="21"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="24"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H4" s="27"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1200,41 +1203,41 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="33" t="s">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="18" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="18" t="s">
         <v>6</v>
       </c>
+      <c r="H6" s="18"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="32" t="s">
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="10"/>
-      <c r="Q7" s="15" t="s">
+      <c r="J7" s="10"/>
+      <c r="P7" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1242,72 +1245,72 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
-      <c r="Q8" s="15"/>
-    </row>
-    <row r="9" spans="2:20" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="J8" s="10"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="12" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="G9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="30"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="L9" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -1316,19 +1319,19 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -1337,19 +1340,19 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
@@ -1358,19 +1361,19 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -1379,19 +1382,19 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
@@ -1400,19 +1403,19 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -1421,19 +1424,19 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
@@ -1442,19 +1445,19 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
@@ -1463,19 +1466,19 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
@@ -1484,19 +1487,19 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
@@ -1505,19 +1508,19 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
@@ -1526,162 +1529,161 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="28" t="s">
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="16" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="D24" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D25" s="14"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D26" s="14"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C26" s="14"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B29:T29"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:G4"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A29:S29"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/A-DOCUMENTACION/010. CASOS DE PRUEBA.xlsx
+++ b/A-DOCUMENTACION/010. CASOS DE PRUEBA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\GitHub\Proyectos\A-DOCUMENTACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\CLAUDIA\PROYECTOS\DOCUMENTACION\A-PROYECTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -171,10 +171,10 @@
     <t>NUMERO DE REVISIÓN</t>
   </si>
   <si>
+    <t xml:space="preserve">Código. </t>
+  </si>
+  <si>
     <t>Se prohíbe la reproducción parcial o total de este documento, por cualquier medio, sin autorización de la Dirección de Comercial de Carnes Frías del Norte. Este documento contiene información confidencial y de uso exclusivo de personal de CCFN.</t>
-  </si>
-  <si>
-    <t>Código.</t>
   </si>
 </sst>
 </file>
@@ -345,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -381,77 +381,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,13 +564,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -605,13 +602,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>669925</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -941,36 +938,36 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="22"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
@@ -997,18 +994,18 @@
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
@@ -1075,47 +1072,35 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="G17" s="20" t="s">
+      <c r="D17" s="26"/>
+      <c r="G17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C6:F6"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="C16:D16"/>
@@ -1127,6 +1112,18 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1136,66 +1133,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S31"/>
+  <dimension ref="B2:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="2"/>
-    <col min="11" max="15" width="30.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="34.7109375" style="2" customWidth="1"/>
-    <col min="17" max="19" width="30.7109375" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="2"/>
+    <col min="12" max="16" width="30.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.7109375" style="2" customWidth="1"/>
+    <col min="18" max="20" width="30.7109375" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="23"/>
-      <c r="D2" s="26" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D2" s="20"/>
+      <c r="E2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="24"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D3" s="21"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1203,41 +1200,41 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="18" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="18"/>
       <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="30" t="s">
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="8"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="10"/>
-      <c r="P7" s="15" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="10"/>
+      <c r="Q7" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
+    <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1245,72 +1242,72 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="2:20" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="H9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="M9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="N9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="P9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="Q9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="R9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="S9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="T9" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="31"/>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="14"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -1319,19 +1316,19 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="31"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="14"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -1340,19 +1337,19 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="31"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="14"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
@@ -1361,19 +1358,19 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="31"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="14"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -1382,19 +1379,19 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="31"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="14"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
@@ -1403,19 +1400,19 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="31"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="14"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -1424,19 +1421,19 @@
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="31"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="14"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
@@ -1445,19 +1442,19 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="31"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="14"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
@@ -1466,19 +1463,19 @@
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="31"/>
+      <c r="T17" s="14"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="14"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
@@ -1487,19 +1484,19 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="31"/>
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="14"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
@@ -1508,19 +1505,19 @@
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="31"/>
+      <c r="T19" s="14"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="14"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
@@ -1529,161 +1526,162 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="35" t="s">
+      <c r="T20" s="14"/>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="16" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="E24" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="29"/>
+      <c r="G24" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C25" s="14"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C26" s="14"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D25" s="14"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="14"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A29:S29"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B29:T29"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:G4"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/A-DOCUMENTACION/010. CASOS DE PRUEBA.xlsx
+++ b/A-DOCUMENTACION/010. CASOS DE PRUEBA.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <r>
       <t xml:space="preserve">Revisión. </t>
@@ -108,12 +108,6 @@
     <t>FECHA</t>
   </si>
   <si>
-    <t>ÁREA FUNCIONAL/SUBPROCESO</t>
-  </si>
-  <si>
-    <t>DATOS/ACCIONES DE ENTRADA</t>
-  </si>
-  <si>
     <t>RESULTADO ESPERADO</t>
   </si>
   <si>
@@ -176,12 +170,33 @@
   <si>
     <t>Se prohíbe la reproducción parcial o total de este documento, por cualquier medio, sin autorización de la Dirección de Comercial de Carnes Frías del Norte. Este documento contiene información confidencial y de uso exclusivo de personal de CCFN.</t>
   </si>
+  <si>
+    <t>ÁREA FUNCIONAL/ SUBPROCESO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pagina. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>DATOS/ ACCIONES DE ENTRADA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +235,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -235,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -341,51 +372,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,50 +435,124 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,15 +575,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -509,15 +613,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -564,13 +668,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -603,13 +707,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
+      <xdr:colOff>650875</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -633,7 +737,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6515100" y="219075"/>
+          <a:off x="5029200" y="219075"/>
           <a:ext cx="555625" cy="512445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -916,214 +1020,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="23" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="3" t="s">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="18" t="s">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:8" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="50"/>
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="25" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+    </row>
+    <row r="17" spans="2:7" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="2:7" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="25" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="26" t="s">
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="2:7" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="G17" s="26" t="s">
+      <c r="C19" s="53"/>
+      <c r="F19" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="G19" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
+  <mergeCells count="24">
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:E5"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1133,558 +1251,578 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T31"/>
+  <dimension ref="A2:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="2"/>
-    <col min="12" max="16" width="30.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.7109375" style="2" customWidth="1"/>
-    <col min="18" max="20" width="30.7109375" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D2" s="20"/>
-      <c r="E2" s="23" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:19" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="18"/>
+      <c r="P7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="35"/>
+    </row>
+    <row r="8" spans="1:19" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="18"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="40"/>
+    </row>
+    <row r="9" spans="1:19" s="25" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D3" s="21"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+    </row>
+    <row r="12" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+    </row>
+    <row r="15" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C24" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="10"/>
-      <c r="Q7" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="10"/>
-      <c r="Q8" s="15"/>
-    </row>
-    <row r="9" spans="2:20" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D23" s="28" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="16" t="s">
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C25" s="26"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C26" s="26"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:19" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D25" s="14"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D26" s="14"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="B29:T29"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
+  <mergeCells count="68">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="P7:S7"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:G4"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A29:S29"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.2" right="0.24" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="509" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>